--- a/毕设/工作计划.xlsx
+++ b/毕设/工作计划.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\documents\毕设\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B66666-DDD0-4204-A595-A27C2DE06D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8175"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>分布式智能博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,13 +144,17 @@
   </si>
   <si>
     <t>人天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人博客系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,13 +199,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -212,6 +213,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -231,7 +300,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -485,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,34 +567,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
       <c r="F2">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -533,7 +602,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -541,7 +610,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -549,10 +618,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -560,7 +629,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -568,7 +637,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -576,7 +645,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>11</v>
@@ -584,7 +653,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -592,7 +661,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -600,7 +669,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -608,7 +677,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -616,7 +685,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>16</v>
@@ -624,7 +693,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -632,7 +701,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -640,7 +709,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -648,12 +717,12 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -661,7 +730,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -669,7 +738,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -677,7 +746,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -685,7 +754,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -693,7 +762,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -701,7 +770,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -709,7 +778,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -717,7 +786,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>2</v>
